--- a/assignment3/performance.xlsx
+++ b/assignment3/performance.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,19 +600,19 @@
       </c>
       <c r="B6">
         <f t="shared" si="5"/>
-        <v>6.4988452142858328</v>
+        <v>6.6472727448522919</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.67900866126065673</v>
+        <v>1.5608093186644467</v>
       </c>
       <c r="E6">
-        <f>35.559/1000</f>
-        <v>3.5559E-2</v>
+        <f>34.765/1000</f>
+        <v>3.4764999999999997E-2</v>
       </c>
       <c r="F6">
-        <f>18.3908/1000</f>
-        <v>1.8390799999999999E-2</v>
+        <f>(4.1657+3.7828+0.052165)/1000</f>
+        <v>8.0006650000000006E-3</v>
       </c>
       <c r="G6">
         <f>8448000000/10^9</f>
@@ -624,11 +624,11 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>3.262500815625204</v>
+        <v>7.4993766143189342</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>237.57698472960433</v>
+        <v>243.00302027901628</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
